--- a/System_data_ELK14_A4.xlsx
+++ b/System_data_ELK14_A4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/matiaskv_ntnu_no/Documents/Documents/NTNU/Methods and algorithms for power systems/Assignments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\matiaskv\Documents\03_Programming\SCOPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{4D43BD04-9682-49C6-A2DC-62706B007CA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FA2B10DA-420C-4ED6-AE74-4CE791C68FB6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F8633A-AF29-4928-BD34-D819F5158CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="549" xr2:uid="{E6D3FD58-6DB6-4988-B229-9B990EF92238}"/>
+    <workbookView xWindow="-17220" yWindow="-7800" windowWidth="13500" windowHeight="21285" tabRatio="549" activeTab="1" xr2:uid="{E6D3FD58-6DB6-4988-B229-9B990EF92238}"/>
   </bookViews>
   <sheets>
     <sheet name="BranchData" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -458,11 +458,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81158F8-AC87-45D5-9D87-5F767982CA33}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="17.140625" customWidth="1"/>
@@ -650,11 +650,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C983FE4D-AF19-4D14-8B95-201C762457E9}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -802,7 +802,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -859,5 +859,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>